--- a/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
+++ b/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210037\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="4140" activeTab="1"/>
   </bookViews>
@@ -23,7 +28,6 @@
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:G6"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhllD1UYbyQ9rb95prwVIIL1UlgkA=="/>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="110">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -373,6 +377,23 @@
     </rPh>
     <phoneticPr fontId="16"/>
   </si>
+  <si>
+    <t>テスト担当者</t>
+    <rPh sb="3" eb="6">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>テスト進捗率</t>
+    <rPh sb="3" eb="5">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -786,11 +807,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -965,31 +1023,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,6 +1055,78 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2831,11 +2937,11 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -30367,10 +30473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:AB987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30378,64 +30484,70 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="26" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="60" customWidth="1"/>
+    <col min="7" max="28" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1">
+    <row r="1" spans="1:28" ht="16.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.25" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:28" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -30448,57 +30560,65 @@
       <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" ht="14.25" customHeight="1">
       <c r="A4" s="12">
         <f t="shared" ref="A4:A38" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" customHeight="1">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -30512,43 +30632,47 @@
       <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:28" ht="14.25" customHeight="1">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" ht="14.25" customHeight="1">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30562,21 +30686,23 @@
       <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" ht="14.25" customHeight="1">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30586,19 +30712,21 @@
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="47"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" ht="14.25" customHeight="1">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30612,21 +30740,27 @@
       <c r="D9" s="19">
         <v>0.2</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="69" t="s">
+      <c r="E9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" ht="14.25" customHeight="1">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30640,21 +30774,25 @@
       <c r="D10" s="25">
         <v>0</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="69" t="s">
+      <c r="E10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
@@ -30664,8 +30802,10 @@
       <c r="X10" s="29"/>
       <c r="Y10" s="29"/>
       <c r="Z10" s="29"/>
-    </row>
-    <row r="11" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30679,20 +30819,24 @@
       <c r="D11" s="25">
         <v>0</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="72" t="s">
+      <c r="E11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
@@ -30702,8 +30846,10 @@
       <c r="X11" s="29"/>
       <c r="Y11" s="29"/>
       <c r="Z11" s="29"/>
-    </row>
-    <row r="12" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30717,21 +30863,25 @@
       <c r="D12" s="19">
         <v>0.2</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="69" t="s">
+      <c r="E12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -30741,8 +30891,10 @@
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
-    </row>
-    <row r="13" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+    </row>
+    <row r="13" spans="1:28" ht="14.25" customHeight="1">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30756,21 +30908,25 @@
       <c r="D13" s="25">
         <v>0</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="69" t="s">
+      <c r="E13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
@@ -30780,8 +30936,10 @@
       <c r="X13" s="29"/>
       <c r="Y13" s="29"/>
       <c r="Z13" s="29"/>
-    </row>
-    <row r="14" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+    </row>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30795,20 +30953,24 @@
       <c r="D14" s="25">
         <v>0</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="49"/>
-      <c r="H14" s="73" t="s">
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="49"/>
+      <c r="J14" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="29"/>
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
@@ -30818,8 +30980,10 @@
       <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
-    </row>
-    <row r="15" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" customHeight="1">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30833,21 +30997,25 @@
       <c r="D15" s="25">
         <v>0</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="74" t="s">
+      <c r="E15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="29"/>
@@ -30857,8 +31025,10 @@
       <c r="X15" s="29"/>
       <c r="Y15" s="29"/>
       <c r="Z15" s="29"/>
-    </row>
-    <row r="16" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30872,21 +31042,25 @@
       <c r="D16" s="25">
         <v>0</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="71" t="s">
+      <c r="E16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
@@ -30896,8 +31070,10 @@
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="29"/>
-    </row>
-    <row r="17" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+    </row>
+    <row r="17" spans="1:28" ht="14.25" customHeight="1">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -30911,20 +31087,24 @@
       <c r="D17" s="25">
         <v>0</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="26" t="s">
+      <c r="E17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -30934,8 +31114,10 @@
       <c r="X17" s="29"/>
       <c r="Y17" s="29"/>
       <c r="Z17" s="29"/>
-    </row>
-    <row r="18" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+    </row>
+    <row r="18" spans="1:28" ht="14.25" customHeight="1">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -30949,21 +31131,25 @@
       <c r="D18" s="25">
         <v>0</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="26" t="s">
+      <c r="E18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -30973,8 +31159,10 @@
       <c r="X18" s="29"/>
       <c r="Y18" s="29"/>
       <c r="Z18" s="29"/>
-    </row>
-    <row r="19" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+    </row>
+    <row r="19" spans="1:28" ht="14.25" customHeight="1">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -30983,20 +31171,22 @@
         <v>46</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:28" ht="14.25" customHeight="1">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -31010,20 +31200,26 @@
       <c r="D20" s="19">
         <v>0</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="26" t="s">
+      <c r="E20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" customHeight="1">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -31037,21 +31233,27 @@
       <c r="D21" s="25">
         <v>0</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="26" t="s">
+      <c r="E21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="7"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:28" ht="14.25" customHeight="1">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -31065,21 +31267,27 @@
       <c r="D22" s="25">
         <v>0</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="26" t="s">
+      <c r="E22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:28" ht="14.25" customHeight="1">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -31093,20 +31301,26 @@
       <c r="D23" s="25">
         <v>0</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="26" t="s">
+      <c r="E23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="7"/>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:28" ht="14.25" customHeight="1">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -31120,21 +31334,27 @@
       <c r="D24" s="25">
         <v>0</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="26" t="s">
+      <c r="E24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="7"/>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:28" ht="14.25" customHeight="1">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -31148,48 +31368,56 @@
       <c r="D25" s="53">
         <v>0</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="26" t="s">
+      <c r="E25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:28" ht="14.25" customHeight="1">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="68" t="s">
         <v>106</v>
       </c>
       <c r="C26" s="58"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" s="43" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="69" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -31198,26 +31426,28 @@
       <c r="D27" s="53">
         <v>0</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="45" t="s">
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="7"/>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" s="43" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="69" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="55" t="s">
@@ -31226,41 +31456,45 @@
       <c r="D28" s="53">
         <v>0</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="46"/>
-      <c r="J28" s="26" t="s">
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="46"/>
+      <c r="L28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" s="43" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="68" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="58"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:28" ht="14.25" customHeight="1">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -31274,21 +31508,23 @@
       <c r="D30" s="56">
         <v>0</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
       <c r="G30" s="52"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="26" t="s">
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:28" ht="14.25" customHeight="1">
       <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -31302,21 +31538,23 @@
       <c r="D31" s="25">
         <v>0</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="48"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="7"/>
       <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:28" ht="14.25" customHeight="1">
       <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -31330,21 +31568,23 @@
       <c r="D32" s="25">
         <v>0</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="26" t="s">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" ht="14.25" customHeight="1">
       <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -31353,20 +31593,22 @@
         <v>59</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="7"/>
       <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" ht="14.25" customHeight="1">
       <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -31380,19 +31622,21 @@
       <c r="D34" s="25">
         <v>0</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="7"/>
       <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" ht="14.25" customHeight="1">
       <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -31402,19 +31646,21 @@
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="7"/>
       <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.25" customHeight="1">
       <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -31428,19 +31674,21 @@
       <c r="D36" s="25">
         <v>0</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="7"/>
       <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" ht="14.25" customHeight="1">
       <c r="A37" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -31454,19 +31702,21 @@
       <c r="D37" s="25">
         <v>0</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="7"/>
       <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" ht="14.25" customHeight="1">
       <c r="A38" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -31480,988 +31730,974 @@
       <c r="D38" s="25">
         <v>0</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="7"/>
       <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="40" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="49" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="50" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="51" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="52" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="53" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="54" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="55" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="56" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="57" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="58" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="59" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="60" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="61" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="62" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="63" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="64" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="65" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="66" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="67" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="68" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="69" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="70" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="71" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="72" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="73" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="74" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="75" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="76" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="77" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="78" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="79" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="80" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="81" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="82" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="83" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="84" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="85" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="86" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="87" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="88" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="89" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="90" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="91" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="92" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="93" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="94" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="95" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="96" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="97" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="98" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="99" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="100" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="101" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="102" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="103" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="104" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="105" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="106" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="107" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="108" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="109" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="110" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="111" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="112" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="113" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="114" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="115" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="116" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="117" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="118" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="119" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="120" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="121" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="122" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="123" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="124" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="125" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="126" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="127" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="128" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="129" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="130" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="131" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="132" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="133" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="134" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="135" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="136" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="137" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="138" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="139" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="140" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="141" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="142" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="143" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="144" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="145" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="146" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="147" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="148" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="149" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="150" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="151" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="152" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="153" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="154" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="155" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="156" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="157" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="158" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="159" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="160" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="161" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="162" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="163" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="164" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="165" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="166" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="167" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="168" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="169" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="170" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="171" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="172" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="173" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="174" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="175" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="176" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="177" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="178" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="179" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="180" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="181" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="182" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="183" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="184" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="185" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="186" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="187" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="188" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="189" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="190" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="191" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="192" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="193" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="194" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="195" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="196" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="197" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="198" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="199" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="200" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="201" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="202" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="203" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="204" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="205" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="206" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="207" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="208" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="209" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="210" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="211" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="212" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="213" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="214" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="215" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="216" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="217" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="218" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="219" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="220" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="221" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="222" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="223" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="224" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="225" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="226" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="227" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="228" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="229" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="230" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="231" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="232" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="233" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="234" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="235" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="236" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="237" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="238" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="239" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="240" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="241" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="242" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="243" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="244" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="245" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="246" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="247" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="248" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="249" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="250" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="251" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="252" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="253" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="254" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="255" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="256" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="257" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="258" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="259" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="260" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="261" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="262" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="263" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="264" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="265" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="266" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="267" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="268" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="269" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="270" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="271" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="272" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="273" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="274" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="275" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="276" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="277" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="278" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="279" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="280" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="281" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="282" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="283" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="284" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="285" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="286" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="287" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="288" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="289" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="290" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="291" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="292" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="293" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="294" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="295" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="296" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="297" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="298" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="299" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="300" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="301" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="302" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="303" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="304" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="305" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="306" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="307" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="308" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="309" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="310" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="311" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="312" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="313" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="314" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="315" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="316" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="317" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="318" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="319" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="320" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="321" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="322" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="323" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="324" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="325" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="326" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="327" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="328" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="329" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="330" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="331" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="332" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="333" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="334" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="335" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="336" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="337" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="338" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="339" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="340" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="341" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="342" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="343" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="344" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="345" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="346" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="347" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="348" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="349" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="350" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="351" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="352" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="353" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="354" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="355" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="356" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="357" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="358" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="359" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="360" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="361" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="362" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="363" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="364" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="365" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="366" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="367" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="368" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="369" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="370" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="371" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="372" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="373" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="374" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="375" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="376" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="377" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="378" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="379" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="380" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="381" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="382" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="383" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="384" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="385" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="386" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="387" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="388" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="389" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="390" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="391" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="392" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="393" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="394" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="395" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="396" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="397" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="398" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="399" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="400" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="401" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="402" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="403" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="404" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="405" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="406" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="407" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="408" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="409" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="410" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="411" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="412" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="413" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="414" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="415" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="416" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="417" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="418" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="419" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="420" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="421" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="422" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="423" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="424" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="425" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="426" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="427" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="428" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="429" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="430" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="431" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="432" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="433" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="434" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="435" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="436" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="437" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="438" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="439" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="440" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="441" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="442" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="443" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="444" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="445" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="446" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="447" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="448" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="449" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="450" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="451" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="452" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="453" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="454" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="455" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="456" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="457" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="458" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="459" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="460" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="461" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="462" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="463" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="464" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="465" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="466" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="467" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="468" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="469" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="470" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="471" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="472" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="473" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="474" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="475" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="476" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="477" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="478" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="479" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="480" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="481" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="482" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="483" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="484" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="485" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="486" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="487" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="488" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="489" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="490" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="491" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="492" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="493" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="494" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="495" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="496" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="497" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="498" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="499" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="500" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="501" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="502" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="503" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="504" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="505" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="506" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="507" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="508" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="509" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="510" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="511" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="512" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="513" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="514" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="515" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="516" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="517" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="518" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="519" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="520" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="521" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="522" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="523" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="524" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="525" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="526" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="527" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="528" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="529" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="530" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="531" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="532" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="533" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="534" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="535" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="536" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="537" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="538" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="539" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="540" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="541" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="542" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="543" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="544" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="545" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="546" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="547" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="548" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="549" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="550" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="551" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="552" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="553" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="554" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="555" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="556" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="557" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="558" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="559" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="560" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="561" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="562" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="563" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="564" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="565" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="566" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="567" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="568" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="569" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="570" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="571" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="572" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="573" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="574" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="575" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="576" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="577" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="578" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="579" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="580" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="581" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="582" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="583" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="584" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="585" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="586" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="587" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="588" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="589" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="590" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="591" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="592" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="593" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="594" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="595" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="596" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="597" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="598" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="599" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="600" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="601" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="602" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="603" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="604" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="605" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="606" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="607" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="608" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="609" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="610" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="611" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="612" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="613" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="614" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="615" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="616" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="617" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="618" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="619" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="620" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="621" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="622" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="623" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="624" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="625" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="626" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="627" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="628" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="629" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="630" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="631" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="632" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="633" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="634" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="635" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="636" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="637" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="638" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="639" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="640" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="641" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="642" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="643" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="644" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="645" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="646" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="647" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="648" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="649" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="650" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="651" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="652" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="653" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="654" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="655" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="656" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="657" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="658" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="659" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="660" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="661" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="662" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="663" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="664" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="665" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="666" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="667" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="668" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="669" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="670" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="671" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="672" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="673" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="674" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="675" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="676" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="677" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="678" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="679" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="680" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="681" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="682" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="683" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="684" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="685" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="686" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="687" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="688" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="689" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="690" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="691" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="692" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="693" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="694" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="695" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="696" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="697" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="698" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="699" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="700" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="701" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="702" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="703" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="704" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="705" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="706" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="707" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="708" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="709" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="710" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="711" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="712" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="713" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="714" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="715" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="716" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="717" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="718" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="719" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="720" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="721" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="722" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="723" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="724" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="725" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="726" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="727" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="728" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="729" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="730" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="731" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="732" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="733" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="734" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="735" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="736" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="737" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="738" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="739" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="740" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="741" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="742" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="743" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="744" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="745" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="746" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="747" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="748" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="749" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="750" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="751" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="752" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="753" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="754" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="755" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="756" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="757" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="758" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="759" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="760" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="761" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="762" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="763" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="764" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="765" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="766" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="767" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="768" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="769" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="770" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="771" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="772" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="773" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="774" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="775" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="776" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="777" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="778" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="779" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="780" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="781" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="782" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="783" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="784" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="785" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="786" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="787" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="788" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="789" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="790" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="791" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="792" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="793" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="794" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="795" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="796" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="797" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="798" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="799" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="800" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="801" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="802" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="803" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="804" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="805" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="806" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="807" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="808" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="809" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="810" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="811" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="812" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="813" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="814" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="815" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="816" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="817" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="818" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="819" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="820" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="821" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="822" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="823" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="824" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="825" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="826" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="827" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="828" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="829" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="830" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="831" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="832" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="833" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="834" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="835" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="836" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="837" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="838" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="839" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="840" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="841" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="842" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="843" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="844" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="845" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="846" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="847" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="848" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="849" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="850" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="851" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="852" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="853" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="854" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="855" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="856" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="857" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="858" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="859" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="860" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="861" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="862" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="863" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="864" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="865" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="866" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="867" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="868" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="869" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="870" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="871" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="872" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="873" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="874" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="875" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="876" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="877" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="878" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="879" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="880" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="881" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="882" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="883" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="884" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="885" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="886" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="887" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="888" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="889" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="890" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="891" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="892" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="893" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="894" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="895" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="896" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="897" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="898" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="899" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="900" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="901" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="902" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="903" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="904" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="905" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="906" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="907" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="908" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="909" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="910" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="911" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="912" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="913" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="914" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="915" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="916" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="917" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="918" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="919" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="920" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="921" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="922" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="923" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="924" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="925" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="926" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="927" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="928" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="929" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="930" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="931" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="932" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="933" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="934" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="935" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="936" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="937" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="938" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="939" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="940" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="941" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="942" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="943" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="944" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="945" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="946" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="947" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="948" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="949" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="950" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="951" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="952" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="953" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="954" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="955" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="956" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="957" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="958" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="959" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="960" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="961" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="962" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="963" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="964" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="965" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="966" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="967" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="968" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="969" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="970" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="971" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="972" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="973" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="974" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="975" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="976" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="977" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="978" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="979" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="980" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="981" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="982" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="983" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="984" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="985" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="986" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="987" spans="1:26" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="988" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="989" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="990" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="991" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="992" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="993" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="994" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="995" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="996" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="997" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="998" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="999" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="1000" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="1001" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="1002" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="1003" spans="1:26" customFormat="1" ht="15" customHeight="1"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="40" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="42" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="43" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="44" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="45" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="46" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="47" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="48" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="515" ht="13.5" customHeight="1"/>
+    <row r="516" ht="13.5" customHeight="1"/>
+    <row r="517" ht="13.5" customHeight="1"/>
+    <row r="518" ht="13.5" customHeight="1"/>
+    <row r="519" ht="13.5" customHeight="1"/>
+    <row r="520" ht="13.5" customHeight="1"/>
+    <row r="521" ht="13.5" customHeight="1"/>
+    <row r="522" ht="13.5" customHeight="1"/>
+    <row r="523" ht="13.5" customHeight="1"/>
+    <row r="524" ht="13.5" customHeight="1"/>
+    <row r="525" ht="13.5" customHeight="1"/>
+    <row r="526" ht="13.5" customHeight="1"/>
+    <row r="527" ht="13.5" customHeight="1"/>
+    <row r="528" ht="13.5" customHeight="1"/>
+    <row r="529" ht="13.5" customHeight="1"/>
+    <row r="530" ht="13.5" customHeight="1"/>
+    <row r="531" ht="13.5" customHeight="1"/>
+    <row r="532" ht="13.5" customHeight="1"/>
+    <row r="533" ht="13.5" customHeight="1"/>
+    <row r="534" ht="13.5" customHeight="1"/>
+    <row r="535" ht="13.5" customHeight="1"/>
+    <row r="536" ht="13.5" customHeight="1"/>
+    <row r="537" ht="13.5" customHeight="1"/>
+    <row r="538" ht="13.5" customHeight="1"/>
+    <row r="539" ht="13.5" customHeight="1"/>
+    <row r="540" ht="13.5" customHeight="1"/>
+    <row r="541" ht="13.5" customHeight="1"/>
+    <row r="542" ht="13.5" customHeight="1"/>
+    <row r="543" ht="13.5" customHeight="1"/>
+    <row r="544" ht="13.5" customHeight="1"/>
+    <row r="545" ht="13.5" customHeight="1"/>
+    <row r="546" ht="13.5" customHeight="1"/>
+    <row r="547" ht="13.5" customHeight="1"/>
+    <row r="548" ht="13.5" customHeight="1"/>
+    <row r="549" ht="13.5" customHeight="1"/>
+    <row r="550" ht="13.5" customHeight="1"/>
+    <row r="551" ht="13.5" customHeight="1"/>
+    <row r="552" ht="13.5" customHeight="1"/>
+    <row r="553" ht="13.5" customHeight="1"/>
+    <row r="554" ht="13.5" customHeight="1"/>
+    <row r="555" ht="13.5" customHeight="1"/>
+    <row r="556" ht="13.5" customHeight="1"/>
+    <row r="557" ht="13.5" customHeight="1"/>
+    <row r="558" ht="13.5" customHeight="1"/>
+    <row r="559" ht="13.5" customHeight="1"/>
+    <row r="560" ht="13.5" customHeight="1"/>
+    <row r="561" ht="13.5" customHeight="1"/>
+    <row r="562" ht="13.5" customHeight="1"/>
+    <row r="563" ht="13.5" customHeight="1"/>
+    <row r="564" ht="13.5" customHeight="1"/>
+    <row r="565" ht="13.5" customHeight="1"/>
+    <row r="566" ht="13.5" customHeight="1"/>
+    <row r="567" ht="13.5" customHeight="1"/>
+    <row r="568" ht="13.5" customHeight="1"/>
+    <row r="569" ht="13.5" customHeight="1"/>
+    <row r="570" ht="13.5" customHeight="1"/>
+    <row r="571" ht="13.5" customHeight="1"/>
+    <row r="572" ht="13.5" customHeight="1"/>
+    <row r="573" ht="13.5" customHeight="1"/>
+    <row r="574" ht="13.5" customHeight="1"/>
+    <row r="575" ht="13.5" customHeight="1"/>
+    <row r="576" ht="13.5" customHeight="1"/>
+    <row r="577" ht="13.5" customHeight="1"/>
+    <row r="578" ht="13.5" customHeight="1"/>
+    <row r="579" ht="13.5" customHeight="1"/>
+    <row r="580" ht="13.5" customHeight="1"/>
+    <row r="581" ht="13.5" customHeight="1"/>
+    <row r="582" ht="13.5" customHeight="1"/>
+    <row r="583" ht="13.5" customHeight="1"/>
+    <row r="584" ht="13.5" customHeight="1"/>
+    <row r="585" ht="13.5" customHeight="1"/>
+    <row r="586" ht="13.5" customHeight="1"/>
+    <row r="587" ht="13.5" customHeight="1"/>
+    <row r="588" ht="13.5" customHeight="1"/>
+    <row r="589" ht="13.5" customHeight="1"/>
+    <row r="590" ht="13.5" customHeight="1"/>
+    <row r="591" ht="13.5" customHeight="1"/>
+    <row r="592" ht="13.5" customHeight="1"/>
+    <row r="593" ht="13.5" customHeight="1"/>
+    <row r="594" ht="13.5" customHeight="1"/>
+    <row r="595" ht="13.5" customHeight="1"/>
+    <row r="596" ht="13.5" customHeight="1"/>
+    <row r="597" ht="13.5" customHeight="1"/>
+    <row r="598" ht="13.5" customHeight="1"/>
+    <row r="599" ht="13.5" customHeight="1"/>
+    <row r="600" ht="13.5" customHeight="1"/>
+    <row r="601" ht="13.5" customHeight="1"/>
+    <row r="602" ht="13.5" customHeight="1"/>
+    <row r="603" ht="13.5" customHeight="1"/>
+    <row r="604" ht="13.5" customHeight="1"/>
+    <row r="605" ht="13.5" customHeight="1"/>
+    <row r="606" ht="13.5" customHeight="1"/>
+    <row r="607" ht="13.5" customHeight="1"/>
+    <row r="608" ht="13.5" customHeight="1"/>
+    <row r="609" ht="13.5" customHeight="1"/>
+    <row r="610" ht="13.5" customHeight="1"/>
+    <row r="611" ht="13.5" customHeight="1"/>
+    <row r="612" ht="13.5" customHeight="1"/>
+    <row r="613" ht="13.5" customHeight="1"/>
+    <row r="614" ht="13.5" customHeight="1"/>
+    <row r="615" ht="13.5" customHeight="1"/>
+    <row r="616" ht="13.5" customHeight="1"/>
+    <row r="617" ht="13.5" customHeight="1"/>
+    <row r="618" ht="13.5" customHeight="1"/>
+    <row r="619" ht="13.5" customHeight="1"/>
+    <row r="620" ht="13.5" customHeight="1"/>
+    <row r="621" ht="13.5" customHeight="1"/>
+    <row r="622" ht="13.5" customHeight="1"/>
+    <row r="623" ht="13.5" customHeight="1"/>
+    <row r="624" ht="13.5" customHeight="1"/>
+    <row r="625" ht="13.5" customHeight="1"/>
+    <row r="626" ht="13.5" customHeight="1"/>
+    <row r="627" ht="13.5" customHeight="1"/>
+    <row r="628" ht="13.5" customHeight="1"/>
+    <row r="629" ht="13.5" customHeight="1"/>
+    <row r="630" ht="13.5" customHeight="1"/>
+    <row r="631" ht="13.5" customHeight="1"/>
+    <row r="632" ht="13.5" customHeight="1"/>
+    <row r="633" ht="13.5" customHeight="1"/>
+    <row r="634" ht="13.5" customHeight="1"/>
+    <row r="635" ht="13.5" customHeight="1"/>
+    <row r="636" ht="13.5" customHeight="1"/>
+    <row r="637" ht="13.5" customHeight="1"/>
+    <row r="638" ht="13.5" customHeight="1"/>
+    <row r="639" ht="13.5" customHeight="1"/>
+    <row r="640" ht="13.5" customHeight="1"/>
+    <row r="641" ht="13.5" customHeight="1"/>
+    <row r="642" ht="13.5" customHeight="1"/>
+    <row r="643" ht="13.5" customHeight="1"/>
+    <row r="644" ht="13.5" customHeight="1"/>
+    <row r="645" ht="13.5" customHeight="1"/>
+    <row r="646" ht="13.5" customHeight="1"/>
+    <row r="647" ht="13.5" customHeight="1"/>
+    <row r="648" ht="13.5" customHeight="1"/>
+    <row r="649" ht="13.5" customHeight="1"/>
+    <row r="650" ht="13.5" customHeight="1"/>
+    <row r="651" ht="13.5" customHeight="1"/>
+    <row r="652" ht="13.5" customHeight="1"/>
+    <row r="653" ht="13.5" customHeight="1"/>
+    <row r="654" ht="13.5" customHeight="1"/>
+    <row r="655" ht="13.5" customHeight="1"/>
+    <row r="656" ht="13.5" customHeight="1"/>
+    <row r="657" ht="13.5" customHeight="1"/>
+    <row r="658" ht="13.5" customHeight="1"/>
+    <row r="659" ht="13.5" customHeight="1"/>
+    <row r="660" ht="13.5" customHeight="1"/>
+    <row r="661" ht="13.5" customHeight="1"/>
+    <row r="662" ht="13.5" customHeight="1"/>
+    <row r="663" ht="13.5" customHeight="1"/>
+    <row r="664" ht="13.5" customHeight="1"/>
+    <row r="665" ht="13.5" customHeight="1"/>
+    <row r="666" ht="13.5" customHeight="1"/>
+    <row r="667" ht="13.5" customHeight="1"/>
+    <row r="668" ht="13.5" customHeight="1"/>
+    <row r="669" ht="13.5" customHeight="1"/>
+    <row r="670" ht="13.5" customHeight="1"/>
+    <row r="671" ht="13.5" customHeight="1"/>
+    <row r="672" ht="13.5" customHeight="1"/>
+    <row r="673" ht="13.5" customHeight="1"/>
+    <row r="674" ht="13.5" customHeight="1"/>
+    <row r="675" ht="13.5" customHeight="1"/>
+    <row r="676" ht="13.5" customHeight="1"/>
+    <row r="677" ht="13.5" customHeight="1"/>
+    <row r="678" ht="13.5" customHeight="1"/>
+    <row r="679" ht="13.5" customHeight="1"/>
+    <row r="680" ht="13.5" customHeight="1"/>
+    <row r="681" ht="13.5" customHeight="1"/>
+    <row r="682" ht="13.5" customHeight="1"/>
+    <row r="683" ht="13.5" customHeight="1"/>
+    <row r="684" ht="13.5" customHeight="1"/>
+    <row r="685" ht="13.5" customHeight="1"/>
+    <row r="686" ht="13.5" customHeight="1"/>
+    <row r="687" ht="13.5" customHeight="1"/>
+    <row r="688" ht="13.5" customHeight="1"/>
+    <row r="689" ht="13.5" customHeight="1"/>
+    <row r="690" ht="13.5" customHeight="1"/>
+    <row r="691" ht="13.5" customHeight="1"/>
+    <row r="692" ht="13.5" customHeight="1"/>
+    <row r="693" ht="13.5" customHeight="1"/>
+    <row r="694" ht="13.5" customHeight="1"/>
+    <row r="695" ht="13.5" customHeight="1"/>
+    <row r="696" ht="13.5" customHeight="1"/>
+    <row r="697" ht="13.5" customHeight="1"/>
+    <row r="698" ht="13.5" customHeight="1"/>
+    <row r="699" ht="13.5" customHeight="1"/>
+    <row r="700" ht="13.5" customHeight="1"/>
+    <row r="701" ht="13.5" customHeight="1"/>
+    <row r="702" ht="13.5" customHeight="1"/>
+    <row r="703" ht="13.5" customHeight="1"/>
+    <row r="704" ht="13.5" customHeight="1"/>
+    <row r="705" ht="13.5" customHeight="1"/>
+    <row r="706" ht="13.5" customHeight="1"/>
+    <row r="707" ht="13.5" customHeight="1"/>
+    <row r="708" ht="13.5" customHeight="1"/>
+    <row r="709" ht="13.5" customHeight="1"/>
+    <row r="710" ht="13.5" customHeight="1"/>
+    <row r="711" ht="13.5" customHeight="1"/>
+    <row r="712" ht="13.5" customHeight="1"/>
+    <row r="713" ht="13.5" customHeight="1"/>
+    <row r="714" ht="13.5" customHeight="1"/>
+    <row r="715" ht="13.5" customHeight="1"/>
+    <row r="716" ht="13.5" customHeight="1"/>
+    <row r="717" ht="13.5" customHeight="1"/>
+    <row r="718" ht="13.5" customHeight="1"/>
+    <row r="719" ht="13.5" customHeight="1"/>
+    <row r="720" ht="13.5" customHeight="1"/>
+    <row r="721" ht="13.5" customHeight="1"/>
+    <row r="722" ht="13.5" customHeight="1"/>
+    <row r="723" ht="13.5" customHeight="1"/>
+    <row r="724" ht="13.5" customHeight="1"/>
+    <row r="725" ht="13.5" customHeight="1"/>
+    <row r="726" ht="13.5" customHeight="1"/>
+    <row r="727" ht="13.5" customHeight="1"/>
+    <row r="728" ht="13.5" customHeight="1"/>
+    <row r="729" ht="13.5" customHeight="1"/>
+    <row r="730" ht="13.5" customHeight="1"/>
+    <row r="731" ht="13.5" customHeight="1"/>
+    <row r="732" ht="13.5" customHeight="1"/>
+    <row r="733" ht="13.5" customHeight="1"/>
+    <row r="734" ht="13.5" customHeight="1"/>
+    <row r="735" ht="13.5" customHeight="1"/>
+    <row r="736" ht="13.5" customHeight="1"/>
+    <row r="737" ht="13.5" customHeight="1"/>
+    <row r="738" ht="13.5" customHeight="1"/>
+    <row r="739" ht="13.5" customHeight="1"/>
+    <row r="740" ht="13.5" customHeight="1"/>
+    <row r="741" ht="13.5" customHeight="1"/>
+    <row r="742" ht="13.5" customHeight="1"/>
+    <row r="743" ht="13.5" customHeight="1"/>
+    <row r="744" ht="13.5" customHeight="1"/>
+    <row r="745" ht="13.5" customHeight="1"/>
+    <row r="746" ht="13.5" customHeight="1"/>
+    <row r="747" ht="13.5" customHeight="1"/>
+    <row r="748" ht="13.5" customHeight="1"/>
+    <row r="749" ht="13.5" customHeight="1"/>
+    <row r="750" ht="13.5" customHeight="1"/>
+    <row r="751" ht="13.5" customHeight="1"/>
+    <row r="752" ht="13.5" customHeight="1"/>
+    <row r="753" ht="13.5" customHeight="1"/>
+    <row r="754" ht="13.5" customHeight="1"/>
+    <row r="755" ht="13.5" customHeight="1"/>
+    <row r="756" ht="13.5" customHeight="1"/>
+    <row r="757" ht="13.5" customHeight="1"/>
+    <row r="758" ht="13.5" customHeight="1"/>
+    <row r="759" ht="13.5" customHeight="1"/>
+    <row r="760" ht="13.5" customHeight="1"/>
+    <row r="761" ht="13.5" customHeight="1"/>
+    <row r="762" ht="13.5" customHeight="1"/>
+    <row r="763" ht="13.5" customHeight="1"/>
+    <row r="764" ht="13.5" customHeight="1"/>
+    <row r="765" ht="13.5" customHeight="1"/>
+    <row r="766" ht="13.5" customHeight="1"/>
+    <row r="767" ht="13.5" customHeight="1"/>
+    <row r="768" ht="13.5" customHeight="1"/>
+    <row r="769" ht="13.5" customHeight="1"/>
+    <row r="770" ht="13.5" customHeight="1"/>
+    <row r="771" ht="13.5" customHeight="1"/>
+    <row r="772" ht="13.5" customHeight="1"/>
+    <row r="773" ht="13.5" customHeight="1"/>
+    <row r="774" ht="13.5" customHeight="1"/>
+    <row r="775" ht="13.5" customHeight="1"/>
+    <row r="776" ht="13.5" customHeight="1"/>
+    <row r="777" ht="13.5" customHeight="1"/>
+    <row r="778" ht="13.5" customHeight="1"/>
+    <row r="779" ht="13.5" customHeight="1"/>
+    <row r="780" ht="13.5" customHeight="1"/>
+    <row r="781" ht="13.5" customHeight="1"/>
+    <row r="782" ht="13.5" customHeight="1"/>
+    <row r="783" ht="13.5" customHeight="1"/>
+    <row r="784" ht="13.5" customHeight="1"/>
+    <row r="785" ht="13.5" customHeight="1"/>
+    <row r="786" ht="13.5" customHeight="1"/>
+    <row r="787" ht="13.5" customHeight="1"/>
+    <row r="788" ht="13.5" customHeight="1"/>
+    <row r="789" ht="13.5" customHeight="1"/>
+    <row r="790" ht="13.5" customHeight="1"/>
+    <row r="791" ht="13.5" customHeight="1"/>
+    <row r="792" ht="13.5" customHeight="1"/>
+    <row r="793" ht="13.5" customHeight="1"/>
+    <row r="794" ht="13.5" customHeight="1"/>
+    <row r="795" ht="13.5" customHeight="1"/>
+    <row r="796" ht="13.5" customHeight="1"/>
+    <row r="797" ht="13.5" customHeight="1"/>
+    <row r="798" ht="13.5" customHeight="1"/>
+    <row r="799" ht="13.5" customHeight="1"/>
+    <row r="800" ht="13.5" customHeight="1"/>
+    <row r="801" ht="13.5" customHeight="1"/>
+    <row r="802" ht="13.5" customHeight="1"/>
+    <row r="803" ht="13.5" customHeight="1"/>
+    <row r="804" ht="13.5" customHeight="1"/>
+    <row r="805" ht="13.5" customHeight="1"/>
+    <row r="806" ht="13.5" customHeight="1"/>
+    <row r="807" ht="13.5" customHeight="1"/>
+    <row r="808" ht="13.5" customHeight="1"/>
+    <row r="809" ht="13.5" customHeight="1"/>
+    <row r="810" ht="13.5" customHeight="1"/>
+    <row r="811" ht="13.5" customHeight="1"/>
+    <row r="812" ht="13.5" customHeight="1"/>
+    <row r="813" ht="13.5" customHeight="1"/>
+    <row r="814" ht="13.5" customHeight="1"/>
+    <row r="815" ht="13.5" customHeight="1"/>
+    <row r="816" ht="13.5" customHeight="1"/>
+    <row r="817" ht="13.5" customHeight="1"/>
+    <row r="818" ht="13.5" customHeight="1"/>
+    <row r="819" ht="13.5" customHeight="1"/>
+    <row r="820" ht="13.5" customHeight="1"/>
+    <row r="821" ht="13.5" customHeight="1"/>
+    <row r="822" ht="13.5" customHeight="1"/>
+    <row r="823" ht="13.5" customHeight="1"/>
+    <row r="824" ht="13.5" customHeight="1"/>
+    <row r="825" ht="13.5" customHeight="1"/>
+    <row r="826" ht="13.5" customHeight="1"/>
+    <row r="827" ht="13.5" customHeight="1"/>
+    <row r="828" ht="13.5" customHeight="1"/>
+    <row r="829" ht="13.5" customHeight="1"/>
+    <row r="830" ht="13.5" customHeight="1"/>
+    <row r="831" ht="13.5" customHeight="1"/>
+    <row r="832" ht="13.5" customHeight="1"/>
+    <row r="833" ht="13.5" customHeight="1"/>
+    <row r="834" ht="13.5" customHeight="1"/>
+    <row r="835" ht="13.5" customHeight="1"/>
+    <row r="836" ht="13.5" customHeight="1"/>
+    <row r="837" ht="13.5" customHeight="1"/>
+    <row r="838" ht="13.5" customHeight="1"/>
+    <row r="839" ht="13.5" customHeight="1"/>
+    <row r="840" ht="13.5" customHeight="1"/>
+    <row r="841" ht="13.5" customHeight="1"/>
+    <row r="842" ht="13.5" customHeight="1"/>
+    <row r="843" ht="13.5" customHeight="1"/>
+    <row r="844" ht="13.5" customHeight="1"/>
+    <row r="845" ht="13.5" customHeight="1"/>
+    <row r="846" ht="13.5" customHeight="1"/>
+    <row r="847" ht="13.5" customHeight="1"/>
+    <row r="848" ht="13.5" customHeight="1"/>
+    <row r="849" ht="13.5" customHeight="1"/>
+    <row r="850" ht="13.5" customHeight="1"/>
+    <row r="851" ht="13.5" customHeight="1"/>
+    <row r="852" ht="13.5" customHeight="1"/>
+    <row r="853" ht="13.5" customHeight="1"/>
+    <row r="854" ht="13.5" customHeight="1"/>
+    <row r="855" ht="13.5" customHeight="1"/>
+    <row r="856" ht="13.5" customHeight="1"/>
+    <row r="857" ht="13.5" customHeight="1"/>
+    <row r="858" ht="13.5" customHeight="1"/>
+    <row r="859" ht="13.5" customHeight="1"/>
+    <row r="860" ht="13.5" customHeight="1"/>
+    <row r="861" ht="13.5" customHeight="1"/>
+    <row r="862" ht="13.5" customHeight="1"/>
+    <row r="863" ht="13.5" customHeight="1"/>
+    <row r="864" ht="13.5" customHeight="1"/>
+    <row r="865" ht="13.5" customHeight="1"/>
+    <row r="866" ht="13.5" customHeight="1"/>
+    <row r="867" ht="13.5" customHeight="1"/>
+    <row r="868" ht="13.5" customHeight="1"/>
+    <row r="869" ht="13.5" customHeight="1"/>
+    <row r="870" ht="13.5" customHeight="1"/>
+    <row r="871" ht="13.5" customHeight="1"/>
+    <row r="872" ht="13.5" customHeight="1"/>
+    <row r="873" ht="13.5" customHeight="1"/>
+    <row r="874" ht="13.5" customHeight="1"/>
+    <row r="875" ht="13.5" customHeight="1"/>
+    <row r="876" ht="13.5" customHeight="1"/>
+    <row r="877" ht="13.5" customHeight="1"/>
+    <row r="878" ht="13.5" customHeight="1"/>
+    <row r="879" ht="13.5" customHeight="1"/>
+    <row r="880" ht="13.5" customHeight="1"/>
+    <row r="881" ht="13.5" customHeight="1"/>
+    <row r="882" ht="13.5" customHeight="1"/>
+    <row r="883" ht="13.5" customHeight="1"/>
+    <row r="884" ht="13.5" customHeight="1"/>
+    <row r="885" ht="13.5" customHeight="1"/>
+    <row r="886" ht="13.5" customHeight="1"/>
+    <row r="887" ht="13.5" customHeight="1"/>
+    <row r="888" ht="13.5" customHeight="1"/>
+    <row r="889" ht="13.5" customHeight="1"/>
+    <row r="890" ht="13.5" customHeight="1"/>
+    <row r="891" ht="13.5" customHeight="1"/>
+    <row r="892" ht="13.5" customHeight="1"/>
+    <row r="893" ht="13.5" customHeight="1"/>
+    <row r="894" ht="13.5" customHeight="1"/>
+    <row r="895" ht="13.5" customHeight="1"/>
+    <row r="896" ht="13.5" customHeight="1"/>
+    <row r="897" ht="13.5" customHeight="1"/>
+    <row r="898" ht="13.5" customHeight="1"/>
+    <row r="899" ht="13.5" customHeight="1"/>
+    <row r="900" ht="13.5" customHeight="1"/>
+    <row r="901" ht="13.5" customHeight="1"/>
+    <row r="902" ht="13.5" customHeight="1"/>
+    <row r="903" ht="13.5" customHeight="1"/>
+    <row r="904" ht="13.5" customHeight="1"/>
+    <row r="905" ht="13.5" customHeight="1"/>
+    <row r="906" ht="13.5" customHeight="1"/>
+    <row r="907" ht="13.5" customHeight="1"/>
+    <row r="908" ht="13.5" customHeight="1"/>
+    <row r="909" ht="13.5" customHeight="1"/>
+    <row r="910" ht="13.5" customHeight="1"/>
+    <row r="911" ht="13.5" customHeight="1"/>
+    <row r="912" ht="13.5" customHeight="1"/>
+    <row r="913" ht="13.5" customHeight="1"/>
+    <row r="914" ht="13.5" customHeight="1"/>
+    <row r="915" ht="13.5" customHeight="1"/>
+    <row r="916" ht="13.5" customHeight="1"/>
+    <row r="917" ht="13.5" customHeight="1"/>
+    <row r="918" ht="13.5" customHeight="1"/>
+    <row r="919" ht="13.5" customHeight="1"/>
+    <row r="920" ht="13.5" customHeight="1"/>
+    <row r="921" ht="13.5" customHeight="1"/>
+    <row r="922" ht="13.5" customHeight="1"/>
+    <row r="923" ht="13.5" customHeight="1"/>
+    <row r="924" ht="13.5" customHeight="1"/>
+    <row r="925" ht="13.5" customHeight="1"/>
+    <row r="926" ht="13.5" customHeight="1"/>
+    <row r="927" ht="13.5" customHeight="1"/>
+    <row r="928" ht="13.5" customHeight="1"/>
+    <row r="929" ht="13.5" customHeight="1"/>
+    <row r="930" ht="13.5" customHeight="1"/>
+    <row r="931" ht="13.5" customHeight="1"/>
+    <row r="932" ht="13.5" customHeight="1"/>
+    <row r="933" ht="13.5" customHeight="1"/>
+    <row r="934" ht="13.5" customHeight="1"/>
+    <row r="935" ht="13.5" customHeight="1"/>
+    <row r="936" ht="13.5" customHeight="1"/>
+    <row r="937" ht="13.5" customHeight="1"/>
+    <row r="938" ht="13.5" customHeight="1"/>
+    <row r="939" ht="13.5" customHeight="1"/>
+    <row r="940" ht="13.5" customHeight="1"/>
+    <row r="941" ht="13.5" customHeight="1"/>
+    <row r="942" ht="13.5" customHeight="1"/>
+    <row r="943" ht="13.5" customHeight="1"/>
+    <row r="944" ht="13.5" customHeight="1"/>
+    <row r="945" ht="13.5" customHeight="1"/>
+    <row r="946" ht="13.5" customHeight="1"/>
+    <row r="947" ht="13.5" customHeight="1"/>
+    <row r="948" ht="13.5" customHeight="1"/>
+    <row r="949" ht="13.5" customHeight="1"/>
+    <row r="950" ht="13.5" customHeight="1"/>
+    <row r="951" ht="13.5" customHeight="1"/>
+    <row r="952" ht="13.5" customHeight="1"/>
+    <row r="953" ht="13.5" customHeight="1"/>
+    <row r="954" ht="13.5" customHeight="1"/>
+    <row r="955" ht="13.5" customHeight="1"/>
+    <row r="956" ht="13.5" customHeight="1"/>
+    <row r="957" ht="13.5" customHeight="1"/>
+    <row r="958" ht="13.5" customHeight="1"/>
+    <row r="959" ht="13.5" customHeight="1"/>
+    <row r="960" ht="13.5" customHeight="1"/>
+    <row r="961" ht="13.5" customHeight="1"/>
+    <row r="962" ht="13.5" customHeight="1"/>
+    <row r="963" ht="13.5" customHeight="1"/>
+    <row r="964" ht="13.5" customHeight="1"/>
+    <row r="965" ht="13.5" customHeight="1"/>
+    <row r="966" ht="13.5" customHeight="1"/>
+    <row r="967" ht="13.5" customHeight="1"/>
+    <row r="968" ht="13.5" customHeight="1"/>
+    <row r="969" ht="13.5" customHeight="1"/>
+    <row r="970" ht="13.5" customHeight="1"/>
+    <row r="971" ht="13.5" customHeight="1"/>
+    <row r="972" ht="13.5" customHeight="1"/>
+    <row r="973" ht="13.5" customHeight="1"/>
+    <row r="974" ht="13.5" customHeight="1"/>
+    <row r="975" ht="13.5" customHeight="1"/>
+    <row r="976" ht="13.5" customHeight="1"/>
+    <row r="977" ht="13.5" customHeight="1"/>
+    <row r="978" ht="13.5" customHeight="1"/>
+    <row r="979" ht="13.5" customHeight="1"/>
+    <row r="980" ht="13.5" customHeight="1"/>
+    <row r="981" ht="13.5" customHeight="1"/>
+    <row r="982" ht="13.5" customHeight="1"/>
+    <row r="983" ht="13.5" customHeight="1"/>
+    <row r="984" ht="13.5" customHeight="1"/>
+    <row r="985" ht="13.5" customHeight="1"/>
+    <row r="986" ht="13.5" customHeight="1"/>
+    <row r="987" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32491,12 +32727,12 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -32673,11 +32909,11 @@
         <f t="shared" ref="A4:A50" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -32901,11 +33137,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -32973,11 +33209,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>

--- a/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
+++ b/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210037\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="4140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="4515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -28,6 +23,7 @@
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhllD1UYbyQ9rb95prwVIIL1UlgkA=="/>
@@ -403,7 +399,7 @@
     <numFmt numFmtId="176" formatCode="aaa"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -513,6 +509,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -848,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1011,9 +1013,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1056,6 +1055,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,24 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1104,28 +1112,37 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2937,11 +2954,11 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -30475,8 +30492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30485,7 +30502,7 @@
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="60" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="59" customWidth="1"/>
     <col min="7" max="28" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30498,12 +30515,12 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -30599,13 +30616,13 @@
         <f t="shared" ref="A4:A38" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="92"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="13"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -30653,13 +30670,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="93"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -30737,8 +30754,8 @@
       <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19">
-        <v>0.2</v>
+      <c r="D9" s="93">
+        <v>0.9</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>37</v>
@@ -30748,7 +30765,7 @@
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="49"/>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="49"/>
@@ -30771,8 +30788,8 @@
       <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="25">
-        <v>0</v>
+      <c r="D10" s="93">
+        <v>0.5</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>37</v>
@@ -30782,7 +30799,7 @@
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="49"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="49"/>
@@ -30816,8 +30833,8 @@
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25">
-        <v>0</v>
+      <c r="D11" s="93">
+        <v>0.5</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>37</v>
@@ -30827,8 +30844,8 @@
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="49"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64" t="s">
+      <c r="I11" s="61"/>
+      <c r="J11" s="63" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="7"/>
@@ -30860,8 +30877,8 @@
       <c r="C12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19">
-        <v>0.2</v>
+      <c r="D12" s="93">
+        <v>0.75</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>32</v>
@@ -30871,7 +30888,7 @@
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="49"/>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="49"/>
@@ -30905,8 +30922,8 @@
       <c r="C13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="25">
-        <v>0</v>
+      <c r="D13" s="93">
+        <v>0.75</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>32</v>
@@ -30916,11 +30933,11 @@
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="49"/>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="49"/>
-      <c r="K13" s="67"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -30950,8 +30967,8 @@
       <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25">
-        <v>0</v>
+      <c r="D14" s="93">
+        <v>0.75</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>32</v>
@@ -30961,7 +30978,7 @@
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="49"/>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="64" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="49"/>
@@ -30994,7 +31011,7 @@
       <c r="C15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="93">
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -31006,7 +31023,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="65" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="49"/>
@@ -31039,7 +31056,7 @@
       <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="93">
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -31052,7 +31069,7 @@
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
       <c r="J16" s="46"/>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="62" t="s">
         <v>33</v>
       </c>
       <c r="L16" s="7"/>
@@ -31084,8 +31101,8 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="25">
-        <v>0</v>
+      <c r="D17" s="93">
+        <v>0.75</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>41</v>
@@ -31128,8 +31145,8 @@
       <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="25">
-        <v>0</v>
+      <c r="D18" s="93">
+        <v>0.2</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>41</v>
@@ -31171,10 +31188,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="87"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="46"/>
@@ -31197,8 +31214,8 @@
       <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="19">
-        <v>0</v>
+      <c r="D20" s="93">
+        <v>0.5</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>52</v>
@@ -31230,8 +31247,8 @@
       <c r="C21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="25">
-        <v>0</v>
+      <c r="D21" s="93">
+        <v>0.5</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>52</v>
@@ -31264,8 +31281,8 @@
       <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="25">
-        <v>0</v>
+      <c r="D22" s="93">
+        <v>0.5</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>52</v>
@@ -31298,7 +31315,7 @@
       <c r="C23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="93">
         <v>0</v>
       </c>
       <c r="E23" s="18" t="s">
@@ -31331,7 +31348,7 @@
       <c r="C24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="93">
         <v>0</v>
       </c>
       <c r="E24" s="18" t="s">
@@ -31365,7 +31382,7 @@
       <c r="C25" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="95">
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
@@ -31393,14 +31410,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="59"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="46"/>
@@ -31417,21 +31434,21 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="95">
         <v>0</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
-      <c r="J27" s="70"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="49"/>
       <c r="L27" s="45" t="s">
         <v>33</v>
@@ -31447,17 +31464,17 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="95">
         <v>0</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
@@ -31475,14 +31492,14 @@
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="59"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="46"/>
@@ -31505,11 +31522,11 @@
       <c r="C30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="97">
         <v>0</v>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
@@ -31535,11 +31552,11 @@
       <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="93">
         <v>0</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -31565,7 +31582,7 @@
       <c r="C32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="93">
         <v>0</v>
       </c>
       <c r="E32" s="53"/>
@@ -31593,9 +31610,9 @@
         <v>59</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
       <c r="G33" s="46"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -31619,11 +31636,11 @@
       <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="93">
         <v>0</v>
       </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -31645,7 +31662,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="99"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="7"/>
@@ -31671,7 +31688,7 @@
       <c r="C36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="93">
         <v>0</v>
       </c>
       <c r="E36" s="25"/>
@@ -31699,7 +31716,7 @@
       <c r="C37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="93">
         <v>0</v>
       </c>
       <c r="E37" s="25"/>
@@ -31727,7 +31744,7 @@
       <c r="C38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="93">
         <v>0</v>
       </c>
       <c r="E38" s="25"/>
@@ -32701,7 +32718,7 @@
   </mergeCells>
   <phoneticPr fontId="16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32727,12 +32744,12 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -32909,11 +32926,11 @@
         <f t="shared" ref="A4:A50" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -33137,11 +33154,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -33209,11 +33226,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>

--- a/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
+++ b/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210037\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="4515" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="4140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,6 @@
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhllD1UYbyQ9rb95prwVIIL1UlgkA=="/>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="110">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -399,7 +403,7 @@
     <numFmt numFmtId="176" formatCode="aaa"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -509,12 +513,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -850,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1011,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1071,9 @@
     <xf numFmtId="9" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,27 +1126,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2954,11 +2937,11 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -30492,8 +30475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30502,7 +30485,7 @@
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="59" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="60" customWidth="1"/>
     <col min="7" max="28" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30515,12 +30498,12 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -30616,13 +30599,13 @@
         <f t="shared" ref="A4:A38" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="76"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="13"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -30670,13 +30653,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="77"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -30754,7 +30737,7 @@
       <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="19">
         <v>0.9</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -30765,7 +30748,7 @@
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="49"/>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="61" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="49"/>
@@ -30788,7 +30771,7 @@
       <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="25">
         <v>0.5</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -30799,7 +30782,7 @@
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="49"/>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="61" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="49"/>
@@ -30833,7 +30816,7 @@
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="25">
         <v>0.5</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -30844,8 +30827,8 @@
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="49"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="63" t="s">
+      <c r="I11" s="62"/>
+      <c r="J11" s="64" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="7"/>
@@ -30877,7 +30860,7 @@
       <c r="C12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="19">
         <v>0.75</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -30888,7 +30871,7 @@
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="49"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="61" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="49"/>
@@ -30922,7 +30905,7 @@
       <c r="C13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="25">
         <v>0.75</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -30933,11 +30916,11 @@
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="49"/>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="61" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="49"/>
-      <c r="K13" s="66"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -30967,7 +30950,7 @@
       <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="25">
         <v>0.75</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -30978,7 +30961,7 @@
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="49"/>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="65" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="49"/>
@@ -31011,7 +30994,7 @@
       <c r="C15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="25">
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -31023,7 +31006,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="66" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="49"/>
@@ -31056,7 +31039,7 @@
       <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="25">
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -31069,7 +31052,7 @@
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
       <c r="J16" s="46"/>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="63" t="s">
         <v>33</v>
       </c>
       <c r="L16" s="7"/>
@@ -31101,7 +31084,7 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="25">
         <v>0.75</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -31145,7 +31128,7 @@
       <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="25">
         <v>0.2</v>
       </c>
       <c r="E18" s="18" t="s">
@@ -31188,10 +31171,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="46"/>
@@ -31214,7 +31197,7 @@
       <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="19">
         <v>0.5</v>
       </c>
       <c r="E20" s="18" t="s">
@@ -31247,7 +31230,7 @@
       <c r="C21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="19">
         <v>0.5</v>
       </c>
       <c r="E21" s="18" t="s">
@@ -31281,7 +31264,7 @@
       <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="19">
         <v>0.5</v>
       </c>
       <c r="E22" s="18" t="s">
@@ -31315,8 +31298,8 @@
       <c r="C23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="93">
-        <v>0</v>
+      <c r="D23" s="19">
+        <v>1</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>48</v>
@@ -31327,8 +31310,8 @@
       <c r="G23" s="44"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="26" t="s">
-        <v>33</v>
+      <c r="J23" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
@@ -31348,8 +31331,8 @@
       <c r="C24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="93">
-        <v>0</v>
+      <c r="D24" s="19">
+        <v>1</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>48</v>
@@ -31360,7 +31343,9 @@
       <c r="G24" s="44"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
-      <c r="J24" s="46"/>
+      <c r="J24" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="K24" s="26" t="s">
         <v>33</v>
       </c>
@@ -31382,8 +31367,8 @@
       <c r="C25" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="95">
-        <v>0</v>
+      <c r="D25" s="19">
+        <v>1</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>48</v>
@@ -31394,7 +31379,9 @@
       <c r="G25" s="50"/>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
-      <c r="J25" s="46"/>
+      <c r="J25" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -31410,14 +31397,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="46"/>
@@ -31434,21 +31421,21 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="69" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="95">
+      <c r="D27" s="53">
         <v>0</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
-      <c r="J27" s="69"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="49"/>
       <c r="L27" s="45" t="s">
         <v>33</v>
@@ -31464,17 +31451,17 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="69" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="95">
+      <c r="D28" s="53">
         <v>0</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
@@ -31492,14 +31479,14 @@
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="46"/>
@@ -31522,11 +31509,11 @@
       <c r="C30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D30" s="56">
         <v>0</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
@@ -31552,11 +31539,11 @@
       <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="25">
         <v>0</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -31582,7 +31569,7 @@
       <c r="C32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="25">
         <v>0</v>
       </c>
       <c r="E32" s="53"/>
@@ -31610,9 +31597,9 @@
         <v>59</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="46"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -31636,11 +31623,11 @@
       <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="93">
+      <c r="D34" s="25">
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -31662,7 +31649,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="99"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="7"/>
@@ -31688,7 +31675,7 @@
       <c r="C36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="93">
+      <c r="D36" s="25">
         <v>0</v>
       </c>
       <c r="E36" s="25"/>
@@ -31716,7 +31703,7 @@
       <c r="C37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="93">
+      <c r="D37" s="25">
         <v>0</v>
       </c>
       <c r="E37" s="25"/>
@@ -31744,7 +31731,7 @@
       <c r="C38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="93">
+      <c r="D38" s="25">
         <v>0</v>
       </c>
       <c r="E38" s="25"/>
@@ -32744,12 +32731,12 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -32926,11 +32913,11 @@
         <f t="shared" ref="A4:A50" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -33154,11 +33141,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -33226,11 +33213,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>

--- a/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
+++ b/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="112">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -394,6 +394,32 @@
     </rPh>
     <phoneticPr fontId="16"/>
   </si>
+  <si>
+    <t>進捗率　10%：ファイル作成、　90%：コード完成、　100%：動作確認済</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="32" eb="37">
+      <t>ドウサカクニンズ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>小野（山田）</t>
+    <rPh sb="0" eb="2">
+      <t>オノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +429,7 @@
     <numFmt numFmtId="176" formatCode="aaa"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -513,6 +539,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -848,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1011,9 +1043,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1115,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,6 +1154,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1168,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2937,11 +2981,11 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -30475,8 +30519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30485,11 +30529,11 @@
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="60" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="59" customWidth="1"/>
     <col min="7" max="28" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" customHeight="1">
+    <row r="1" spans="1:28" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -30498,12 +30542,12 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -30513,9 +30557,11 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -30599,13 +30645,13 @@
         <f t="shared" ref="A4:A38" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="13"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -30653,13 +30699,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -30737,18 +30783,18 @@
       <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="80">
         <v>0.9</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="80">
         <v>0</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="49"/>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="49"/>
@@ -30771,18 +30817,18 @@
       <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="80">
         <v>0.5</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="80">
         <v>0</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="49"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="49"/>
@@ -30816,19 +30862,19 @@
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="80">
         <v>0.5</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="80">
         <v>0</v>
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="49"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64" t="s">
+      <c r="I11" s="61"/>
+      <c r="J11" s="63" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="7"/>
@@ -30860,18 +30906,18 @@
       <c r="C12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="80">
         <v>0.75</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="80">
         <v>0</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="49"/>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="49"/>
@@ -30905,22 +30951,22 @@
       <c r="C13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="80">
         <v>0.75</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="80">
         <v>0</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="49"/>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="49"/>
-      <c r="K13" s="67"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -30950,18 +30996,18 @@
       <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="80">
         <v>0.75</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="80">
         <v>0</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="49"/>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="64" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="49"/>
@@ -30991,22 +31037,22 @@
       <c r="B15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>41</v>
+      <c r="C15" s="98" t="s">
+        <v>111</v>
       </c>
-      <c r="D15" s="25">
-        <v>0</v>
+      <c r="D15" s="80">
+        <v>0.9</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="80">
         <v>0</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="65" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="49"/>
@@ -31039,20 +31085,20 @@
       <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="25">
-        <v>0</v>
+      <c r="D16" s="80">
+        <v>0.5</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="80">
         <v>0</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
       <c r="J16" s="46"/>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="62" t="s">
         <v>33</v>
       </c>
       <c r="L16" s="7"/>
@@ -31084,13 +31130,13 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="25">
-        <v>0.75</v>
+      <c r="D17" s="80">
+        <v>0.8</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="80">
         <v>0</v>
       </c>
       <c r="G17" s="44"/>
@@ -31128,13 +31174,13 @@
       <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="25">
-        <v>0.2</v>
+      <c r="D18" s="80">
+        <v>0.8</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="80">
         <v>0</v>
       </c>
       <c r="G18" s="44"/>
@@ -31172,9 +31218,9 @@
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="73"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="46"/>
@@ -31198,12 +31244,12 @@
         <v>48</v>
       </c>
       <c r="D20" s="19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="80">
         <v>0</v>
       </c>
       <c r="G20" s="44"/>
@@ -31231,12 +31277,12 @@
         <v>48</v>
       </c>
       <c r="D21" s="19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="80">
         <v>0</v>
       </c>
       <c r="G21" s="44"/>
@@ -31270,7 +31316,7 @@
       <c r="E22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="80">
         <v>0</v>
       </c>
       <c r="G22" s="44"/>
@@ -31304,7 +31350,7 @@
       <c r="E23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="80">
         <v>0</v>
       </c>
       <c r="G23" s="44"/>
@@ -31337,7 +31383,7 @@
       <c r="E24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="80">
         <v>0</v>
       </c>
       <c r="G24" s="44"/>
@@ -31373,7 +31419,7 @@
       <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="80">
         <v>0</v>
       </c>
       <c r="G25" s="50"/>
@@ -31397,14 +31443,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="59"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="46"/>
@@ -31421,21 +31467,21 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="82">
         <v>0</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
-      <c r="J27" s="70"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="49"/>
       <c r="L27" s="45" t="s">
         <v>33</v>
@@ -31451,17 +31497,17 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="82">
         <v>0</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
@@ -31479,14 +31525,14 @@
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="59"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="46"/>
@@ -31509,11 +31555,11 @@
       <c r="C30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="81">
         <v>0</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
@@ -31539,11 +31585,11 @@
       <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="80">
         <v>0</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -31569,7 +31615,7 @@
       <c r="C32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="80">
         <v>0</v>
       </c>
       <c r="E32" s="53"/>
@@ -31597,9 +31643,9 @@
         <v>59</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="46"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -31623,11 +31669,11 @@
       <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="80">
         <v>0</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -31675,7 +31721,7 @@
       <c r="C36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="80">
         <v>0</v>
       </c>
       <c r="E36" s="25"/>
@@ -31703,7 +31749,7 @@
       <c r="C37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="80">
         <v>0</v>
       </c>
       <c r="E37" s="25"/>
@@ -31731,7 +31777,7 @@
       <c r="C38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="80">
         <v>0</v>
       </c>
       <c r="E38" s="25"/>
@@ -32698,10 +32744,11 @@
     <row r="986" ht="13.5" customHeight="1"/>
     <row r="987" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32731,12 +32778,12 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -32913,11 +32960,11 @@
         <f t="shared" ref="A4:A50" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -33141,11 +33188,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -33213,11 +33260,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>

--- a/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
+++ b/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="115">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>一般社員情報管理機能</t>
-  </si>
-  <si>
-    <t>一般社員情報変更入力</t>
   </si>
   <si>
     <t>飯野</t>
@@ -416,6 +413,34 @@
       <t>オノ</t>
     </rPh>
     <rPh sb="3" eb="5">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>社員情報変更入力</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>追加作業</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>セッション管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
       <t>ヤマダ</t>
     </rPh>
     <phoneticPr fontId="16"/>
@@ -880,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1124,6 +1149,15 @@
     <xf numFmtId="9" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,7 +1203,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2981,11 +3015,11 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -30517,10 +30551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB987"/>
+  <dimension ref="A1:AB989"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30542,12 +30576,12 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -30557,11 +30591,11 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" customHeight="1">
-      <c r="A2" s="93" t="s">
-        <v>110</v>
+      <c r="A2" s="96" t="s">
+        <v>109</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -30607,10 +30641,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>17</v>
@@ -30642,15 +30676,15 @@
     </row>
     <row r="4" spans="1:28" ht="14.25" customHeight="1">
       <c r="A4" s="12">
-        <f t="shared" ref="A4:A38" si="0">ROW()-4</f>
+        <f t="shared" ref="A4:A40" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="77"/>
       <c r="G4" s="13"/>
       <c r="H4" s="7"/>
@@ -30699,12 +30733,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="78"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -30907,7 +30941,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>32</v>
@@ -30922,7 +30956,9 @@
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="46"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="28"/>
@@ -30952,7 +30988,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>32</v>
@@ -30967,7 +31003,9 @@
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="66"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="28"/>
@@ -30997,7 +31035,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>32</v>
@@ -31011,7 +31049,9 @@
         <v>33</v>
       </c>
       <c r="K14" s="49"/>
-      <c r="L14" s="46"/>
+      <c r="L14" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="28"/>
@@ -31037,11 +31077,11 @@
       <c r="B15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="98" t="s">
-        <v>111</v>
+      <c r="C15" s="83" t="s">
+        <v>110</v>
       </c>
       <c r="D15" s="80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>44</v>
@@ -31056,7 +31096,9 @@
         <v>33</v>
       </c>
       <c r="K15" s="49"/>
-      <c r="L15" s="46"/>
+      <c r="L15" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="28"/>
@@ -31086,7 +31128,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>44</v>
@@ -31101,7 +31143,9 @@
       <c r="K16" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="28"/>
@@ -31131,7 +31175,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="80">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>41</v>
@@ -31175,7 +31219,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="80">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>41</v>
@@ -31237,17 +31281,17 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>47</v>
+      <c r="B20" s="84" t="s">
+        <v>111</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="19">
         <v>0.8</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="80">
         <v>0</v>
@@ -31271,16 +31315,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="19">
         <v>0.8</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="80">
         <v>0</v>
@@ -31305,16 +31349,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="19">
         <v>0.5</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="80">
         <v>0</v>
@@ -31339,16 +31383,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="19">
         <v>1</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="80">
         <v>0</v>
@@ -31372,16 +31416,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="80">
         <v>0</v>
@@ -31408,16 +31452,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="80">
         <v>0</v>
@@ -31438,13 +31482,12 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1">
+    <row r="26" spans="1:28" s="85" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
@@ -31454,67 +31497,61 @@
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="8"/>
       <c r="N26" s="7"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
+    <row r="27" spans="1:28" s="85" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>23</v>
+      <c r="C27" s="101" t="s">
+        <v>114</v>
       </c>
       <c r="D27" s="82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="45" t="s">
+      <c r="J27" s="46"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="8"/>
       <c r="N27" s="7"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:28" ht="14.25" customHeight="1">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>106</v>
+      <c r="B28" s="67" t="s">
+        <v>105</v>
       </c>
-      <c r="C28" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="82">
-        <v>0</v>
-      </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="8"/>
       <c r="N28" s="7"/>
       <c r="O28" s="5"/>
@@ -31523,82 +31560,81 @@
     </row>
     <row r="29" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="12">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="67" t="s">
-        <v>105</v>
+      <c r="B29" s="68" t="s">
+        <v>106</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="C29" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="82">
+        <v>0</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="14.25" customHeight="1">
+    <row r="30" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>56</v>
+      <c r="B30" s="68" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="82">
         <v>0</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="46"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="26" t="s">
+      <c r="L30" s="26" t="s">
         <v>33</v>
       </c>
+      <c r="M30" s="8"/>
       <c r="N30" s="7"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:28" ht="14.25" customHeight="1">
+    <row r="31" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A31" s="12">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>57</v>
+      <c r="B31" s="67" t="s">
+        <v>104</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="80">
-        <v>0</v>
-      </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="7"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="M31" s="8"/>
       <c r="N31" s="7"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -31610,26 +31646,26 @@
         <v>28</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D32" s="81">
         <v>0</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="26" t="s">
+      <c r="M32" s="26" t="s">
         <v>33</v>
       </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -31639,20 +31675,26 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>59</v>
+      <c r="B33" s="20" t="s">
+        <v>56</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="C33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="80">
+        <v>0</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="8"/>
+      <c r="M33" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -31664,7 +31706,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>23</v>
@@ -31672,8 +31714,8 @@
       <c r="D34" s="80">
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -31681,7 +31723,9 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
+      <c r="N34" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -31692,13 +31736,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="7"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="46"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -31716,7 +31760,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>23</v>
@@ -31724,8 +31768,8 @@
       <c r="D36" s="80">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -31743,17 +31787,13 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>62</v>
+      <c r="B37" s="31" t="s">
+        <v>59</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="80">
-        <v>0</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -31794,8 +31834,62 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="13.5" customHeight="1"/>
-    <row r="40" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A39" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="80">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A40" s="12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="80">
+        <v>0</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1"/>
     <row r="42" spans="1:17" ht="13.5" customHeight="1"/>
     <row r="43" spans="1:17" ht="13.5" customHeight="1"/>
@@ -32743,6 +32837,8 @@
     <row r="985" ht="13.5" customHeight="1"/>
     <row r="986" ht="13.5" customHeight="1"/>
     <row r="987" ht="13.5" customHeight="1"/>
+    <row r="988" ht="13.5" customHeight="1"/>
+    <row r="989" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G1:J1"/>
@@ -32778,12 +32874,12 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -32898,13 +32994,13 @@
         <v>20</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>17</v>
@@ -32919,13 +33015,13 @@
         <v>20</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="Q3" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>17</v>
@@ -32940,13 +33036,13 @@
         <v>20</v>
       </c>
       <c r="V3" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="X3" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="Y3" s="10" t="s">
         <v>17</v>
@@ -32960,11 +33056,11 @@
         <f t="shared" ref="A4:A50" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -32994,7 +33090,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>23</v>
@@ -33033,7 +33129,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>23</v>
@@ -33072,10 +33168,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -33111,10 +33207,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -33150,10 +33246,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="25">
         <v>1</v>
@@ -33188,11 +33284,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -33222,10 +33318,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="25">
         <v>1</v>
@@ -33260,11 +33356,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -33297,7 +33393,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="25">
         <v>1</v>
@@ -33336,7 +33432,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="25">
         <v>1</v>
@@ -33372,10 +33468,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="25">
         <v>1</v>
@@ -33413,7 +33509,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
@@ -33446,10 +33542,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="25">
         <v>1</v>
@@ -33485,10 +33581,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="25">
         <v>1</v>
@@ -33524,10 +33620,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="25">
         <v>0.1</v>
@@ -33563,10 +33659,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="25">
         <v>0</v>
@@ -33604,10 +33700,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="25">
         <v>0</v>
@@ -33643,10 +33739,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="25">
         <v>0</v>
@@ -33682,7 +33778,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
@@ -33715,10 +33811,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
@@ -33756,7 +33852,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
@@ -33789,10 +33885,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="25">
         <v>0.7</v>
@@ -33830,10 +33926,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="25">
         <v>0</v>
@@ -33869,10 +33965,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="25">
         <v>0</v>
@@ -33908,10 +34004,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="25">
         <v>0</v>
@@ -33947,10 +34043,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="25">
         <v>0</v>
@@ -33986,7 +34082,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="23"/>
@@ -34019,10 +34115,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="25">
         <v>0</v>
@@ -34060,7 +34156,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="23"/>
@@ -34093,10 +34189,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="25">
         <v>1</v>
@@ -34132,10 +34228,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="25">
         <v>1</v>
@@ -34171,10 +34267,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="25">
         <v>1</v>
@@ -34210,10 +34306,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="25">
         <v>0.5</v>
@@ -34251,10 +34347,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" s="25">
         <v>0</v>
@@ -34290,7 +34386,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="33"/>
@@ -34323,10 +34419,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="25">
         <v>0</v>
@@ -34366,7 +34462,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
@@ -34399,10 +34495,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="25">
         <v>0</v>
@@ -34438,7 +34534,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>23</v>
@@ -34477,7 +34573,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>23</v>
@@ -34518,7 +34614,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="33"/>
@@ -34551,7 +34647,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>23</v>
@@ -34590,7 +34686,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="23"/>
@@ -34623,7 +34719,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>23</v>
@@ -34662,7 +34758,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>23</v>
@@ -34701,7 +34797,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>23</v>

--- a/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
+++ b/Dekopon/web_crud_sample/doc/チーム開発演習_作業工程表デコポン .xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="119">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -445,6 +445,34 @@
     </rPh>
     <phoneticPr fontId="16"/>
   </si>
+  <si>
+    <t>小野・飯塚</t>
+    <rPh sb="3" eb="5">
+      <t>イイツカ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>作業工程表作成</t>
+    <rPh sb="0" eb="5">
+      <t>サギョウコウテイヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>飯塚</t>
+    <rPh sb="0" eb="2">
+      <t>イイツカ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>小野</t>
+    <phoneticPr fontId="16"/>
+  </si>
 </sst>
 </file>
 
@@ -499,6 +527,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -525,25 +554,30 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -905,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1158,6 +1192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1202,9 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3015,11 +3052,11 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -30551,10 +30588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB989"/>
+  <dimension ref="A1:AB990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30576,12 +30613,12 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -30591,11 +30628,11 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -30676,15 +30713,15 @@
     </row>
     <row r="4" spans="1:28" ht="14.25" customHeight="1">
       <c r="A4" s="12">
-        <f t="shared" ref="A4:A40" si="0">ROW()-4</f>
+        <f t="shared" ref="A4:A41" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="77"/>
       <c r="G4" s="13"/>
       <c r="H4" s="7"/>
@@ -30728,20 +30765,26 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="14.25" customHeight="1">
+    <row r="6" spans="1:28" s="87" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="93" t="s">
-        <v>25</v>
+      <c r="B6" s="84" t="s">
+        <v>116</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -30757,21 +30800,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>26</v>
+      <c r="B7" s="95" t="s">
+        <v>25</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -30787,17 +30824,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
+      <c r="B8" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
@@ -30811,28 +30854,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
+      <c r="B9" s="21" t="s">
+        <v>30</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="80">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="80">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="46"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="N9" s="7"/>
@@ -30845,20 +30878,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>34</v>
+      <c r="B10" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>37</v>
+      <c r="E10" s="83" t="s">
+        <v>118</v>
       </c>
       <c r="F10" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="49"/>
@@ -30868,22 +30901,13 @@
       <c r="J10" s="49"/>
       <c r="K10" s="46"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1">
       <c r="A11" s="12">
@@ -30891,29 +30915,32 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>37</v>
+      <c r="E11" s="83" t="s">
+        <v>118</v>
       </c>
       <c r="F11" s="80">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="49"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="63" t="s">
+      <c r="I11" s="60" t="s">
         <v>33</v>
       </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
@@ -30935,32 +30962,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" s="80">
         <v>1</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>32</v>
+      <c r="E12" s="83" t="s">
+        <v>118</v>
       </c>
       <c r="F12" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="49"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="61"/>
+      <c r="J12" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
@@ -30982,7 +31008,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>37</v>
@@ -30990,11 +31016,11 @@
       <c r="D13" s="80">
         <v>1</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>32</v>
+      <c r="E13" s="83" t="s">
+        <v>117</v>
       </c>
       <c r="F13" s="80">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="49"/>
@@ -31002,7 +31028,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="49"/>
-      <c r="K13" s="66"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="13" t="s">
         <v>24</v>
       </c>
@@ -31029,7 +31055,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>37</v>
@@ -31037,18 +31063,19 @@
       <c r="D14" s="80">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>32</v>
+      <c r="E14" s="83" t="s">
+        <v>117</v>
       </c>
       <c r="F14" s="80">
         <v>0</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="49"/>
-      <c r="J14" s="64" t="s">
+      <c r="I14" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="13" t="s">
         <v>24</v>
       </c>
@@ -31074,25 +31101,24 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>40</v>
+      <c r="B15" s="27" t="s">
+        <v>39</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>110</v>
+      <c r="C15" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="80">
         <v>1</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>44</v>
+      <c r="E15" s="83" t="s">
+        <v>117</v>
       </c>
       <c r="F15" s="80">
         <v>0</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="64" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="49"/>
@@ -31121,28 +31147,28 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>42</v>
+      <c r="B16" s="30" t="s">
+        <v>40</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>41</v>
+      <c r="C16" s="83" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="80">
         <v>1</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>44</v>
+      <c r="E16" s="83" t="s">
+        <v>117</v>
       </c>
       <c r="F16" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="62" t="s">
+      <c r="J16" s="65" t="s">
         <v>33</v>
       </c>
+      <c r="K16" s="49"/>
       <c r="L16" s="13" t="s">
         <v>24</v>
       </c>
@@ -31169,27 +31195,30 @@
         <v>13</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>41</v>
+      <c r="E17" s="83" t="s">
+        <v>117</v>
       </c>
       <c r="F17" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="28"/>
@@ -31213,29 +31242,30 @@
         <v>14</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>41</v>
+      <c r="E18" s="83" t="s">
+        <v>118</v>
       </c>
       <c r="F18" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="26" t="s">
+      <c r="J18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
@@ -31257,51 +31287,65 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>46</v>
+      <c r="B19" s="27" t="s">
+        <v>45</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="72"/>
+      <c r="C19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="80">
+        <v>1</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="80">
+        <v>1</v>
+      </c>
+      <c r="G19" s="44"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="46"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
+      <c r="M19" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" customHeight="1">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>111</v>
+      <c r="B20" s="21" t="s">
+        <v>46</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="80">
-        <v>0</v>
-      </c>
-      <c r="G20" s="44"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
-      <c r="J20" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="N20" s="7"/>
@@ -31314,8 +31358,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>48</v>
+      <c r="B21" s="84" t="s">
+        <v>111</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>47</v>
@@ -31323,17 +31367,16 @@
       <c r="D21" s="19">
         <v>0.8</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>51</v>
+      <c r="E21" s="83" t="s">
+        <v>115</v>
       </c>
       <c r="F21" s="80">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>33</v>
       </c>
       <c r="L21" s="7"/>
@@ -31349,16 +31392,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>51</v>
+      <c r="E22" s="83" t="s">
+        <v>115</v>
       </c>
       <c r="F22" s="80">
         <v>0</v>
@@ -31383,16 +31426,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D23" s="19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>47</v>
+      <c r="E23" s="83" t="s">
+        <v>115</v>
       </c>
       <c r="F23" s="80">
         <v>0</v>
@@ -31400,8 +31443,9 @@
       <c r="G23" s="44"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="13" t="s">
-        <v>24</v>
+      <c r="J23" s="46"/>
+      <c r="K23" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
@@ -31416,7 +31460,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>51</v>
@@ -31424,11 +31468,11 @@
       <c r="D24" s="19">
         <v>1</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>47</v>
+      <c r="E24" s="83" t="s">
+        <v>115</v>
       </c>
       <c r="F24" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="44"/>
       <c r="H24" s="49"/>
@@ -31436,9 +31480,6 @@
       <c r="J24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="26" t="s">
-        <v>33</v>
-      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="N24" s="7"/>
@@ -31451,24 +31492,24 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>53</v>
+      <c r="B25" s="14" t="s">
+        <v>52</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>47</v>
+      <c r="E25" s="83" t="s">
+        <v>115</v>
       </c>
       <c r="F25" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="13" t="s">
         <v>24</v>
       </c>
@@ -31482,23 +31523,36 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:28" s="85" customFormat="1" ht="14.25" customHeight="1">
+    <row r="26" spans="1:28" ht="14.25" customHeight="1">
       <c r="A26" s="12">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
-      <c r="B26" s="67" t="s">
-        <v>112</v>
+      <c r="B26" s="27" t="s">
+        <v>53</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="47"/>
+      <c r="C26" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="80">
+        <v>1</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="8"/>
       <c r="N26" s="7"/>
       <c r="O26" s="5"/>
@@ -31507,81 +31561,74 @@
     </row>
     <row r="27" spans="1:28" s="85" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
-      <c r="B27" s="68" t="s">
-        <v>113</v>
+      <c r="B27" s="67" t="s">
+        <v>112</v>
       </c>
-      <c r="C27" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="45" t="s">
-        <v>33</v>
-      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="7"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:28" s="85" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="67" t="s">
-        <v>105</v>
+      <c r="B28" s="68" t="s">
+        <v>113</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
+      <c r="C28" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="82">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="8"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
+    <row r="29" spans="1:28" ht="14.25" customHeight="1">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>106</v>
+      <c r="B29" s="67" t="s">
+        <v>105</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="82">
-        <v>0</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="45" t="s">
-        <v>33</v>
-      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
       <c r="M29" s="8"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
@@ -31594,7 +31641,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" s="55" t="s">
         <v>23</v>
@@ -31602,13 +31649,14 @@
       <c r="D30" s="82">
         <v>0</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="50"/>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
-      <c r="J30" s="46"/>
-      <c r="L30" s="26" t="s">
+      <c r="J30" s="69"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="45" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="8"/>
@@ -31619,52 +31667,51 @@
     </row>
     <row r="31" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A31" s="12">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
-      <c r="B31" s="67" t="s">
-        <v>104</v>
+      <c r="B31" s="68" t="s">
+        <v>105</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
+      <c r="C31" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="82">
+        <v>0</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
       <c r="J31" s="46"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="7"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:28" ht="14.25" customHeight="1">
+    <row r="32" spans="1:28" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="12">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>55</v>
+      <c r="B32" s="67" t="s">
+        <v>104</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="81">
-        <v>0</v>
-      </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="52"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="46"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="M32" s="8"/>
       <c r="N32" s="7"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -31676,20 +31723,20 @@
         <v>29</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="80">
-        <v>0</v>
+      <c r="D33" s="81">
+        <v>1</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="7"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="46"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="26" t="s">
@@ -31706,26 +31753,26 @@
         <v>30</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="80">
-        <v>0</v>
+        <v>0.9</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="26" t="s">
+      <c r="M34" s="26" t="s">
         <v>33</v>
       </c>
+      <c r="N34" s="7"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -31735,21 +31782,27 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>58</v>
+      <c r="B35" s="20" t="s">
+        <v>57</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="46"/>
+      <c r="C35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="80">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
+      <c r="N35" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -31759,18 +31812,14 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="80">
-        <v>0</v>
-      </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="7"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -31787,13 +31836,15 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>59</v>
+      <c r="B37" s="20" t="s">
+        <v>58</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="C37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="80"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -31811,17 +31862,13 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>60</v>
+      <c r="B38" s="31" t="s">
+        <v>59</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="80">
-        <v>0</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -31840,7 +31887,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>23</v>
@@ -31868,7 +31915,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>23</v>
@@ -31890,7 +31937,34 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A41" s="12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="80">
+        <v>0</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1"/>
     <row r="43" spans="1:17" ht="13.5" customHeight="1"/>
     <row r="44" spans="1:17" ht="13.5" customHeight="1"/>
@@ -32839,11 +32913,12 @@
     <row r="987" ht="13.5" customHeight="1"/>
     <row r="988" ht="13.5" customHeight="1"/>
     <row r="989" ht="13.5" customHeight="1"/>
+    <row r="990" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
@@ -32874,12 +32949,12 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -33056,11 +33131,11 @@
         <f t="shared" ref="A4:A50" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -33284,11 +33359,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -33356,11 +33431,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
